--- a/CarDic.xlsx
+++ b/CarDic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12660"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="915">
   <si>
     <t>汽车集团</t>
   </si>
@@ -154,7 +154,7 @@
     <t>本田(进口)</t>
   </si>
   <si>
-    <t>Brio;Gear;NONE;N-BOX;本田e;NeuV;N-WGN;Shuttle;SmallRS;飞度;锋范；CONCEPTB;INSIGHT;VisionXS-1;CLARITY;HondaDesignC001;AC-X;里程;HR-V;Urban;WR-V;CONCEPTV;BR-V;CONCEPTD;Passport;Pilot;CONCEPTM;Freed;STEPWGN;EV-Stex;CR-Z;NSX;S660;Ridgeline;Tomo;UrbanEV;FCV;FCX;元素;时韵;HSV-010GT;S2000</t>
+    <t>Brio;Gear;NONE;N-BOX;本田e;NeuV;N-WGN;Shuttle;SmallRS;飞度;锋范；CONCEPTB;INSIGHT;VisionXS-1;CLARITY;HondaDesignC001;AC-X;本田里程;HR-V;Urban;WR-V;CONCEPTV;BR-V;CONCEPTD;Passport;Pilot;CONCEPTM;Freed;STEPWGN;EV-Stex;CR-Z;NSX;S660;Ridgeline;Tomo;UrbanEV;FCV;FCX;元素;时韵;HSV-010GT;S2000</t>
   </si>
   <si>
     <t>奔驰</t>
@@ -235,7 +235,7 @@
     <t>比亚迪</t>
   </si>
   <si>
-    <t>e1;e2;e3;F3;秦;秦Pro;秦Pro新能源;秦新能源;速锐;S2;元;元新能源;宋Pro;宋Pro新能源;唐;唐新能源;e6;宋MAX;宋MAX新能源;宋;宋系能源;e5;e-SEEDGT;汉;E-SEED;王朝概念车;c6;商;T3;F0;福莱尔;F3R;F3新能源;G3;G3R;G5;L3;F6;G6;思锐;S6;S7;M6;S8</t>
+    <t>e1;e2;e3;F3;秦;秦Pro;秦Pro新能源;秦新能源;速锐;S2;比亚迪元;元新能源;宋Pro;宋Pro新能源;唐;唐新能源;e6;宋MAX;宋MAX新能源;宋;宋系能源;e5;e-SEEDGT;汉;E-SEED;王朝概念车;c6;比亚迪商;T3;F0;福莱尔;F3R;F3新能源;G3;G3R;G5;L3;F6;G6;思锐;S6;S7;M6;S8</t>
   </si>
   <si>
     <t>宝骏</t>
@@ -244,13 +244,13 @@
     <t>上汽通用五菱</t>
   </si>
   <si>
-    <t>E100;E200;310;310W;510;530;360;730;CityCar;乐驰;330;610;630;560</t>
+    <t>E100;E200;宝骏310;宝骏310W;宝骏510;宝骏530;宝骏360;宝骏730;CityCar;乐驰;宝骏330;宝骏610;宝骏630;宝骏560</t>
   </si>
   <si>
     <t>保时捷</t>
   </si>
   <si>
-    <t>Taycan;Panamera;Panamera新能源;Macan;Cayenne;Cayenne新能源;718;911;MissionE;Pajun;919Hybrid;981Bergspyder;917;918Spyder;Boxster;CarreraGT;Cayman;356;968</t>
+    <t>Taycan;Panamera;Panamera新能源;Macan;Cayenne;Cayenne新能源;保时捷718;保时捷911;MissionE;Pajun;919Hybrid;981Bergspyder;保时捷917;918Spyder;Boxster;CarreraGT;Cayman;保时捷356;保时捷968</t>
   </si>
   <si>
     <t>标致</t>
@@ -259,13 +259,13 @@
     <t>东风标致</t>
   </si>
   <si>
-    <t>301;308;408;508;3008;4008;5008;508新能源;2008;e2008;4008新能源;206;207;307;308S;</t>
+    <t>标致301;标致308;标致408;标致508;标致3008;标致4008;标致5008;508新能源;标致2008;标致e2008;标致4008新能源;标致206;标致207;标致307;308S;</t>
   </si>
   <si>
     <t>标致(进口)</t>
   </si>
   <si>
-    <t>107;108;Fractal;208;e-208;EXALT;Instinct;408GT;e-Legend;608;HX1;UrbanCrossover;Quartx;6008;SXC;Partner;Rifter;5008经典;L500RHYBRID;ONYX;VisionGranTurismo;RCZ;Boxer;TRAVELLER;PickUp;BB1;iOn;206;207;307;407;607;HR1;4007;807;EX1;SR1</t>
+    <t>标致107;标致108;Fractal;标致208;e-208;EXALT;Instinct;408GT;e-Legend;标致608;HX1;UrbanCrossover;Quartx;标致6008;SXC;Partner;Rifter;5008经典;L500RHYBRID;ONYX;VisionGranTurismo;RCZ;Boxer;TRAVELLER;PickUp;BB1;iOn;标致206;标致207;标致307;标致407;标致607;HR1;标致4007;标致807;EX1;SR1</t>
   </si>
   <si>
     <t>奔腾</t>
@@ -304,9 +304,6 @@
     <t>战旗;BJ212;北京BW007;勇士;路霸;越铃;锐铃;勇士皮卡;骑士S12</t>
   </si>
   <si>
-    <t>北京</t>
-  </si>
-  <si>
     <t>北京越野</t>
   </si>
   <si>
@@ -319,7 +316,7 @@
     <t>smartforfour;smartfowtwo;A级;B级;smartfortwo新能源;C级;CLS级;E级;S级;G级;M级;CL级;CL级;SLS级;SL级;SLK级</t>
   </si>
   <si>
-    <t>EC;EC3;EU;EU5;BEIJING-EU7;EC5;EX;EX3;EX5;C90EV;D80EV;EX400L;ET400;EX300L;EV;ES210;EU;概念车</t>
+    <t>EC;EC3;EU;EU5;BEIJING-EU7;EC5;EX;EX3;EX5;C90EV;D80EV;EX400L;ET400;EX300L;EV;ES210;EU</t>
   </si>
   <si>
     <t>北汽幻速</t>
@@ -346,7 +343,7 @@
     <t>S50;M50F;M60;306;M20;M30;307;BQ5;205;M35;T205-D</t>
   </si>
   <si>
-    <t>007</t>
+    <t>北汽威旺007</t>
   </si>
   <si>
     <t>407EV;307EV;608EV</t>
@@ -544,7 +541,7 @@
     <t>上汽大众</t>
   </si>
   <si>
-    <t>Polo;桑塔纳;朗逸;朗逸纯电;凌度;帕萨特;帕萨特新能源;辉昂;途铠;途岳;途观L;途观L新能源;途昂;途昂X;途安;途观;辉昂新能源;ID.;Viloran;高尔;朗行;朗境;Passat领取;桑塔纳经典;桑塔纳志俊</t>
+    <t>Polo;桑塔纳;朗逸;朗逸纯电;凌度;帕萨特;帕萨特新能源;辉昂;途铠;途岳;途观L;途观L新能源;途昂;途昂X;途安;途观;辉昂新能源;ID.3;Viloran;高尔;朗行;朗境;Passat领取;桑塔纳经典;桑塔纳志俊</t>
   </si>
   <si>
     <t>一汽大众</t>
@@ -757,7 +754,7 @@
     <t>丰田(进口)</t>
   </si>
   <si>
-    <t>埃尔法;威尔法;86;普瑞维亚;HIACE;Aygo;CONCEPT-爱iRide;Fun-Vii;i-Road;KIKAI;Ultra-compactBEV;e-4me;FT-EV;FV2;iQ;ME.WERHOMBUS;YARiS(海外);FT-Bh;威驰(海外);Auris;Matrix;PremiAqua;LQ;NS4;SAI;卡罗拉(进口);普锐斯(海外);Avensis;JPNTaxi;Mirai;FUN;FCV;FCV-R;凯美瑞(海外);锐志(海外);皇冠(进口);亚洲龙(海外);世纪;RAIZE;WAY;C-HR(海外);FT-4X;Rush;RAV4(进口);AV4新能源(进口);FJ酷路泽;Fortuner;Harrier;TjCruiser;汉兰达(进口);4Runner;兰德酷路泽(进口);普拉多(进口);红杉;Fine-ComfortRide;GranAce;Granvia;Innova;ProaceCity;Sienna;SIENTA;Verso;Verso-S;e-Care;e-Trans;GRSuperSport;Supra;e-RACER;FT-1;FT-86;GRHVSports;S-FR;e-Palette;PROACE;APM;柯斯达(海外);UrbanUtility;Hilux;Tacoma;坦途;FT-CH;悦佳;SprinterTrueno;Cressida;威飒;WISH;Celica;杰路驰</t>
+    <t>埃尔法;威尔法;丰田86;普瑞维亚;HIACE;Aygo;CONCEPT-爱iRide;Fun-Vii;i-Road;KIKAI;Ultra-compactBEV;e-4me;FT-EV;FV2;iQ;ME.WERHOMBUS;YARiS(海外);FT-Bh;威驰(海外);Auris;Matrix;PremiAqua;LQ;NS4;SAI;卡罗拉(进口);普锐斯(海外);Avensis;JPNTaxi;Mirai;FUN;FCV;FCV-R;凯美瑞(海外);锐志(海外);皇冠(进口);亚洲龙(海外);世纪;RAIZE;WAY;C-HR(海外);FT-4X;Rush;RAV4(进口);AV4新能源(进口);FJ酷路泽;Fortuner;Harrier;TjCruiser;汉兰达(进口);4Runner;兰德酷路泽(进口);普拉多(进口);红杉;Fine-ComfortRide;GranAce;Granvia;Innova;ProaceCity;Sienna;SIENTA;Verso;Verso-S;e-Care;e-Trans;GRSuperSport;Supra;e-RACER;FT-1;FT-86;GRHVSports;S-FR;e-Palette;PROACE;APM;柯斯达(海外);UrbanUtility;Hilux;Tacoma;坦途;FT-CH;悦佳;SprinterTrueno;Cressida;威飒;WISH;Celica;杰路驰</t>
   </si>
   <si>
     <t>福特</t>
@@ -793,7 +790,7 @@
     <t>法拉利</t>
   </si>
   <si>
-    <t>GTC4Lusso;Portofino;SF90Stradale;488;812;F8;;CaliforniaT;MonzaSP1;MonzaSP2;Roma;Sergio;308;J50;P80/C;SP38;SP3JC;458;599;F12berlinetta;FF;Dino;Enzo;LaFerrari;212;250GT;275;328;348;360;410;500;550;575M;612;F355;F40;F430;F50;GTO</t>
+    <t>GTC4Lusso;Portofino;SF90Stradale;法拉利488;法拉利812;F8;;CaliforniaT;MonzaSP1;MonzaSP2;Roma;Sergio;法拉利308;J50;P80/C;SP38;SP3JC;法拉利458;法拉利599;F12berlinetta;FF;Dino;Enzo;LaFerrari;法拉利212;250GT;法拉利275;法拉利328;法拉利348;法拉利360;法拉利410;法拉利500;法拉利550;575M;法拉612;F355;F40;F430;F50;GTO</t>
   </si>
   <si>
     <t>菲亚特</t>
@@ -862,6 +859,9 @@
     <t>弗那萨利</t>
   </si>
   <si>
+    <t>弗那萨利99</t>
+  </si>
+  <si>
     <t>广汽传祺</t>
   </si>
   <si>
@@ -1003,7 +1003,7 @@
     <t>哈弗</t>
   </si>
   <si>
-    <t>H2;H2s;F5;F7;F7x;H4;H5;H6;H6Coupe;M6;H7;H9;ConceptB;COUPE;HB-03;HR-02;VISION2025;ConceptR;IF;H1;E;H3;H8</t>
+    <t>H2;H2s;F5;F7;F7x;H4;H5;H6;H6Coupe;M6;H7;H9;ConceptB;COUPE;HB-03;HR-02;VISION2025;ConceptR;IF;H1;哈弗E;H3;H8</t>
   </si>
   <si>
     <t>红旗</t>
@@ -1012,7 +1012,7 @@
     <t>一汽红旗</t>
   </si>
   <si>
-    <t>L5;H5;H7;E-HS3;HS5;HS7;B-Concept;H5新能源;H7新能源;L7;U-Concept;S-Concept;E115;LS5;E·境;S9;概念雕塑;世纪星;新明仕;盛世;CA770;L9;旗舰;SUV</t>
+    <t>L5;H5;H7;E-HS3;HS5;HS7;B-Concept;H5新能源;H7新能源;L7;U-Concept;S-Concept;E115;LS5;E·境;S9;概念雕塑;世纪星;新明仕;盛世;CA770;L9</t>
   </si>
   <si>
     <t>海马</t>
@@ -1522,7 +1522,7 @@
     <t>林肯(进口)</t>
   </si>
   <si>
-    <t>林肯MKZ;林肯大陆;林肯MKC;航海家;林肯MKX;飞行家;飞行家新能源;领航员;Corsair(海外);Corsair新能源(海外);林肯MKT;林肯C;林肯MKS;Model L;城市</t>
+    <t>林肯MKZ;林肯大陆;林肯MKC;航海家;林肯MKX;飞行家;飞行家新能源;领航员;Corsair(海外);Corsair新能源(海外);林肯MKT;林肯C;林肯MKS;Model L;林肯城市</t>
   </si>
   <si>
     <t>铃木</t>
@@ -1900,7 +1900,7 @@
     <t>欧拉</t>
   </si>
   <si>
-    <t>欧拉R1;欧拉iQ;欧拉R2;欧拉</t>
+    <t>欧拉R1;欧拉iQ;欧拉R2</t>
   </si>
   <si>
     <t>欧宝</t>
@@ -2278,7 +2278,7 @@
     <t>赛麟领道;赛麟S1;赛麟S7;赛麟Mustang;赛麟科迈罗;赛麟挑战者</t>
   </si>
   <si>
-    <t>上海</t>
+    <t>上海汽车</t>
   </si>
   <si>
     <t>上海SH760</t>
@@ -2833,7 +2833,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2856,36 +2925,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2899,50 +2939,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2962,10 +2962,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2985,13 +2985,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3015,13 +3045,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3033,13 +3075,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3051,7 +3087,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3063,73 +3117,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3147,19 +3153,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3176,60 +3176,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3257,6 +3203,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -3276,16 +3261,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3294,133 +3294,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3765,14 +3765,14 @@
   <sheetPr/>
   <dimension ref="A1:C413"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A319" workbookViewId="0">
+      <selection activeCell="C341" sqref="C341"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="19.3703703703704" customWidth="1"/>
-    <col min="3" max="3" width="38.6111111111111" customWidth="1"/>
+    <col min="2" max="2" width="19.3666666666667" customWidth="1"/>
+    <col min="3" max="3" width="38.6083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4250,24 +4250,24 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" t="s">
         <v>96</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>97</v>
-      </c>
-      <c r="C44" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" t="s">
         <v>99</v>
-      </c>
-      <c r="B45" t="s">
-        <v>99</v>
-      </c>
-      <c r="C45" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -4278,887 +4278,887 @@
         <v>24</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B47" t="s">
         <v>24</v>
       </c>
       <c r="C47" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B48" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" t="s">
         <v>104</v>
-      </c>
-      <c r="C48" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" t="s">
         <v>106</v>
-      </c>
-      <c r="B49" t="s">
-        <v>106</v>
-      </c>
-      <c r="C49" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B50" t="s">
         <v>87</v>
       </c>
       <c r="C50" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B51" t="s">
         <v>94</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B52" t="s">
         <v>24</v>
       </c>
       <c r="C52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" t="s">
         <v>112</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>113</v>
-      </c>
-      <c r="C53" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" t="s">
         <v>115</v>
-      </c>
-      <c r="B54" t="s">
-        <v>115</v>
-      </c>
-      <c r="C54" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
+        <v>116</v>
+      </c>
+      <c r="B55" t="s">
         <v>117</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>118</v>
-      </c>
-      <c r="C55" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
+        <v>119</v>
+      </c>
+      <c r="B56" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" t="s">
         <v>120</v>
-      </c>
-      <c r="B56" t="s">
-        <v>120</v>
-      </c>
-      <c r="C56" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" t="s">
+        <v>121</v>
+      </c>
+      <c r="C57" t="s">
         <v>122</v>
-      </c>
-      <c r="B57" t="s">
-        <v>122</v>
-      </c>
-      <c r="C57" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
+        <v>123</v>
+      </c>
+      <c r="B58" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" t="s">
         <v>124</v>
-      </c>
-      <c r="B58" t="s">
-        <v>124</v>
-      </c>
-      <c r="C58" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
+        <v>125</v>
+      </c>
+      <c r="B59" t="s">
         <v>126</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>127</v>
-      </c>
-      <c r="C59" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
+        <v>128</v>
+      </c>
+      <c r="B60" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" t="s">
         <v>129</v>
-      </c>
-      <c r="B60" t="s">
-        <v>129</v>
-      </c>
-      <c r="C60" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
+        <v>130</v>
+      </c>
+      <c r="B61" t="s">
+        <v>130</v>
+      </c>
+      <c r="C61" t="s">
         <v>131</v>
-      </c>
-      <c r="B61" t="s">
-        <v>131</v>
-      </c>
-      <c r="C61" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
+        <v>132</v>
+      </c>
+      <c r="B62" t="s">
+        <v>132</v>
+      </c>
+      <c r="C62" t="s">
         <v>133</v>
-      </c>
-      <c r="B62" t="s">
-        <v>133</v>
-      </c>
-      <c r="C62" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
+        <v>134</v>
+      </c>
+      <c r="B63" t="s">
         <v>135</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>136</v>
-      </c>
-      <c r="C63" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
+        <v>137</v>
+      </c>
+      <c r="B64" t="s">
+        <v>137</v>
+      </c>
+      <c r="C64" t="s">
         <v>138</v>
-      </c>
-      <c r="B64" t="s">
-        <v>138</v>
-      </c>
-      <c r="C64" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
+        <v>139</v>
+      </c>
+      <c r="B65" t="s">
         <v>140</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>141</v>
-      </c>
-      <c r="C65" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
+        <v>142</v>
+      </c>
+      <c r="B66" t="s">
+        <v>140</v>
+      </c>
+      <c r="C66" t="s">
         <v>143</v>
-      </c>
-      <c r="B66" t="s">
-        <v>141</v>
-      </c>
-      <c r="C66" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
+        <v>144</v>
+      </c>
+      <c r="B67" t="s">
         <v>145</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>146</v>
-      </c>
-      <c r="C67" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
+        <v>147</v>
+      </c>
+      <c r="B68" t="s">
+        <v>147</v>
+      </c>
+      <c r="C68" t="s">
         <v>148</v>
-      </c>
-      <c r="B68" t="s">
-        <v>148</v>
-      </c>
-      <c r="C68" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
+        <v>149</v>
+      </c>
+      <c r="B69" t="s">
+        <v>149</v>
+      </c>
+      <c r="C69" t="s">
         <v>150</v>
-      </c>
-      <c r="B69" t="s">
-        <v>150</v>
-      </c>
-      <c r="C69" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
+        <v>151</v>
+      </c>
+      <c r="B70" t="s">
+        <v>151</v>
+      </c>
+      <c r="C70" t="s">
         <v>152</v>
-      </c>
-      <c r="B70" t="s">
-        <v>152</v>
-      </c>
-      <c r="C70" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
+        <v>153</v>
+      </c>
+      <c r="B71" t="s">
+        <v>153</v>
+      </c>
+      <c r="C71" t="s">
         <v>154</v>
-      </c>
-      <c r="B71" t="s">
-        <v>154</v>
-      </c>
-      <c r="C71" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
+        <v>155</v>
+      </c>
+      <c r="B72" t="s">
+        <v>155</v>
+      </c>
+      <c r="C72" t="s">
         <v>156</v>
-      </c>
-      <c r="B72" t="s">
-        <v>156</v>
-      </c>
-      <c r="C72" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
+        <v>157</v>
+      </c>
+      <c r="B73" t="s">
+        <v>157</v>
+      </c>
+      <c r="C73" t="s">
         <v>158</v>
-      </c>
-      <c r="B73" t="s">
-        <v>158</v>
-      </c>
-      <c r="C73" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
+        <v>159</v>
+      </c>
+      <c r="B74" t="s">
+        <v>159</v>
+      </c>
+      <c r="C74" t="s">
         <v>160</v>
-      </c>
-      <c r="B74" t="s">
-        <v>160</v>
-      </c>
-      <c r="C74" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
+        <v>161</v>
+      </c>
+      <c r="B75" t="s">
         <v>162</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>163</v>
       </c>
-      <c r="C75" t="s">
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="76" ht="14.4" spans="1:3">
-      <c r="A76" s="2" t="s">
+      <c r="B76" t="s">
+        <v>164</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="B76" t="s">
-        <v>165</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
+        <v>166</v>
+      </c>
+      <c r="B77" t="s">
+        <v>166</v>
+      </c>
+      <c r="C77" t="s">
         <v>167</v>
-      </c>
-      <c r="B77" t="s">
-        <v>167</v>
-      </c>
-      <c r="C77" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
+        <v>168</v>
+      </c>
+      <c r="B78" t="s">
+        <v>168</v>
+      </c>
+      <c r="C78" t="s">
         <v>169</v>
-      </c>
-      <c r="B78" t="s">
-        <v>169</v>
-      </c>
-      <c r="C78" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
+        <v>170</v>
+      </c>
+      <c r="B79" t="s">
         <v>171</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>172</v>
-      </c>
-      <c r="C79" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
+        <v>173</v>
+      </c>
+      <c r="B80" t="s">
         <v>174</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>175</v>
-      </c>
-      <c r="C80" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B81" t="s">
+        <v>176</v>
+      </c>
+      <c r="C81" t="s">
         <v>177</v>
-      </c>
-      <c r="C81" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B82" t="s">
+        <v>178</v>
+      </c>
+      <c r="C82" t="s">
         <v>179</v>
-      </c>
-      <c r="C82" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
+        <v>180</v>
+      </c>
+      <c r="B83" t="s">
+        <v>180</v>
+      </c>
+      <c r="C83" t="s">
         <v>181</v>
-      </c>
-      <c r="B83" t="s">
-        <v>181</v>
-      </c>
-      <c r="C83" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
+        <v>182</v>
+      </c>
+      <c r="B84" t="s">
         <v>183</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>184</v>
-      </c>
-      <c r="C84" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B85" t="s">
+        <v>185</v>
+      </c>
+      <c r="C85" t="s">
         <v>186</v>
-      </c>
-      <c r="C85" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
+        <v>187</v>
+      </c>
+      <c r="B86" t="s">
         <v>188</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>189</v>
-      </c>
-      <c r="C86" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B87" t="s">
+        <v>190</v>
+      </c>
+      <c r="C87" t="s">
         <v>191</v>
-      </c>
-      <c r="C87" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
+        <v>192</v>
+      </c>
+      <c r="B88" t="s">
         <v>193</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>194</v>
-      </c>
-      <c r="C88" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B89" t="s">
+        <v>195</v>
+      </c>
+      <c r="C89" t="s">
         <v>196</v>
-      </c>
-      <c r="C89" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B90" t="s">
+        <v>197</v>
+      </c>
+      <c r="C90" t="s">
         <v>198</v>
-      </c>
-      <c r="C90" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
+        <v>199</v>
+      </c>
+      <c r="B91" t="s">
         <v>200</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>201</v>
-      </c>
-      <c r="C91" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B92" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C92" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
+        <v>203</v>
+      </c>
+      <c r="B93" t="s">
+        <v>193</v>
+      </c>
+      <c r="C93" t="s">
         <v>204</v>
-      </c>
-      <c r="B93" t="s">
-        <v>194</v>
-      </c>
-      <c r="C93" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
+        <v>205</v>
+      </c>
+      <c r="B94" t="s">
         <v>206</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>207</v>
-      </c>
-      <c r="C94" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B95" t="s">
+        <v>208</v>
+      </c>
+      <c r="C95" t="s">
         <v>209</v>
-      </c>
-      <c r="C95" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
+        <v>210</v>
+      </c>
+      <c r="B96" t="s">
+        <v>210</v>
+      </c>
+      <c r="C96" t="s">
         <v>211</v>
-      </c>
-      <c r="B96" t="s">
-        <v>211</v>
-      </c>
-      <c r="C96" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
+        <v>212</v>
+      </c>
+      <c r="B97" t="s">
         <v>213</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>214</v>
-      </c>
-      <c r="C97" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
+        <v>215</v>
+      </c>
+      <c r="B98" t="s">
+        <v>185</v>
+      </c>
+      <c r="C98" t="s">
         <v>216</v>
-      </c>
-      <c r="B98" t="s">
-        <v>186</v>
-      </c>
-      <c r="C98" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
+        <v>217</v>
+      </c>
+      <c r="B99" t="s">
         <v>218</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
         <v>219</v>
-      </c>
-      <c r="C99" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
+        <v>220</v>
+      </c>
+      <c r="B100" t="s">
         <v>221</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>222</v>
-      </c>
-      <c r="C100" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
+        <v>223</v>
+      </c>
+      <c r="B101" t="s">
+        <v>223</v>
+      </c>
+      <c r="C101" t="s">
         <v>224</v>
-      </c>
-      <c r="B101" t="s">
-        <v>224</v>
-      </c>
-      <c r="C101" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
+        <v>225</v>
+      </c>
+      <c r="B102" t="s">
+        <v>225</v>
+      </c>
+      <c r="C102" t="s">
         <v>226</v>
-      </c>
-      <c r="B102" t="s">
-        <v>226</v>
-      </c>
-      <c r="C102" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
+        <v>227</v>
+      </c>
+      <c r="B103" t="s">
+        <v>227</v>
+      </c>
+      <c r="C103" t="s">
         <v>228</v>
-      </c>
-      <c r="B103" t="s">
-        <v>228</v>
-      </c>
-      <c r="C103" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
+        <v>229</v>
+      </c>
+      <c r="B104" t="s">
+        <v>229</v>
+      </c>
+      <c r="C104" t="s">
         <v>230</v>
-      </c>
-      <c r="B104" t="s">
-        <v>230</v>
-      </c>
-      <c r="C104" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
+        <v>231</v>
+      </c>
+      <c r="B105" t="s">
+        <v>231</v>
+      </c>
+      <c r="C105" t="s">
         <v>232</v>
-      </c>
-      <c r="B105" t="s">
-        <v>232</v>
-      </c>
-      <c r="C105" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
+        <v>233</v>
+      </c>
+      <c r="B106" t="s">
+        <v>233</v>
+      </c>
+      <c r="C106" t="s">
         <v>234</v>
-      </c>
-      <c r="B106" t="s">
-        <v>234</v>
-      </c>
-      <c r="C106" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
+        <v>235</v>
+      </c>
+      <c r="B107" t="s">
         <v>236</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
         <v>237</v>
-      </c>
-      <c r="C107" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
+        <v>238</v>
+      </c>
+      <c r="B108" t="s">
+        <v>238</v>
+      </c>
+      <c r="C108" t="s">
         <v>239</v>
-      </c>
-      <c r="B108" t="s">
-        <v>239</v>
-      </c>
-      <c r="C108" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
+        <v>240</v>
+      </c>
+      <c r="B109" t="s">
         <v>241</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
         <v>242</v>
-      </c>
-      <c r="C109" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B110" t="s">
+        <v>243</v>
+      </c>
+      <c r="C110" t="s">
         <v>244</v>
-      </c>
-      <c r="C110" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B111" t="s">
+        <v>245</v>
+      </c>
+      <c r="C111" t="s">
         <v>246</v>
-      </c>
-      <c r="C111" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
+        <v>247</v>
+      </c>
+      <c r="B112" t="s">
         <v>248</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
         <v>249</v>
-      </c>
-      <c r="C112" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B113" t="s">
+        <v>250</v>
+      </c>
+      <c r="C113" t="s">
         <v>251</v>
-      </c>
-      <c r="C113" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B114" t="s">
+        <v>252</v>
+      </c>
+      <c r="C114" t="s">
         <v>253</v>
-      </c>
-      <c r="C114" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
+        <v>254</v>
+      </c>
+      <c r="B115" t="s">
         <v>255</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" t="s">
         <v>256</v>
-      </c>
-      <c r="C115" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
+        <v>257</v>
+      </c>
+      <c r="B116" t="s">
+        <v>257</v>
+      </c>
+      <c r="C116" t="s">
         <v>258</v>
-      </c>
-      <c r="B116" t="s">
-        <v>258</v>
-      </c>
-      <c r="C116" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
+        <v>259</v>
+      </c>
+      <c r="B117" t="s">
         <v>260</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" t="s">
         <v>261</v>
-      </c>
-      <c r="C117" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B118" t="s">
+        <v>262</v>
+      </c>
+      <c r="C118" t="s">
         <v>263</v>
-      </c>
-      <c r="C118" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B119" t="s">
+        <v>264</v>
+      </c>
+      <c r="C119" t="s">
         <v>265</v>
-      </c>
-      <c r="C119" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
+        <v>266</v>
+      </c>
+      <c r="B120" t="s">
         <v>267</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C120" t="s">
         <v>268</v>
-      </c>
-      <c r="C120" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
+        <v>269</v>
+      </c>
+      <c r="B121" t="s">
         <v>270</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C121" t="s">
         <v>271</v>
-      </c>
-      <c r="C121" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B122" t="s">
+        <v>272</v>
+      </c>
+      <c r="C122" t="s">
         <v>273</v>
-      </c>
-      <c r="B122" t="s">
-        <v>273</v>
-      </c>
-      <c r="C122" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
+        <v>274</v>
+      </c>
+      <c r="B123" t="s">
+        <v>274</v>
+      </c>
+      <c r="C123" t="s">
         <v>275</v>
-      </c>
-      <c r="B123" t="s">
-        <v>275</v>
-      </c>
-      <c r="C123" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
+        <v>276</v>
+      </c>
+      <c r="B124" t="s">
+        <v>276</v>
+      </c>
+      <c r="C124" t="s">
         <v>277</v>
       </c>
-      <c r="B124" t="s">
-        <v>277</v>
-      </c>
-      <c r="C124" t="s">
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="4" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="125" ht="14.4" spans="1:3">
-      <c r="A125" s="4" t="s">
+      <c r="B125" t="s">
+        <v>278</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>279</v>
-      </c>
-      <c r="B125" t="s">
-        <v>279</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C126" t="s">
         <v>281</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="C126">
-        <v>99</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -5172,7 +5172,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="128" ht="14.4" spans="1:3">
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
         <v>285</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="129" ht="14.4" spans="1:3">
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
         <v>285</v>
       </c>
@@ -5199,7 +5199,7 @@
         <v>285</v>
       </c>
       <c r="B130" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C130" t="s">
         <v>288</v>
@@ -5359,7 +5359,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="145" ht="14.4" spans="1:3">
+    <row r="145" spans="1:3">
       <c r="A145" s="4" t="s">
         <v>318</v>
       </c>
@@ -5392,7 +5392,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="148" ht="14.4" spans="1:3">
+    <row r="148" spans="1:3">
       <c r="A148" s="4" t="s">
         <v>325</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>328</v>
       </c>
       <c r="B149" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C149" t="s">
         <v>329</v>
@@ -5568,7 +5568,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="164" ht="15" spans="1:3">
+    <row r="164" spans="1:3">
       <c r="A164" s="7" t="s">
         <v>367</v>
       </c>
@@ -5579,7 +5579,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="165" ht="15" spans="1:3">
+    <row r="165" spans="1:3">
       <c r="A165" s="7" t="s">
         <v>369</v>
       </c>
@@ -5612,7 +5612,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="168" ht="15" spans="1:3">
+    <row r="168" spans="1:3">
       <c r="A168" t="s">
         <v>376</v>
       </c>
@@ -5623,7 +5623,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="169" ht="15" spans="1:3">
+    <row r="169" spans="1:3">
       <c r="A169" t="s">
         <v>379</v>
       </c>
@@ -5678,7 +5678,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="174" ht="15" spans="1:3">
+    <row r="174" spans="1:3">
       <c r="A174" s="7" t="s">
         <v>390</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="175" ht="15" spans="1:3">
+    <row r="175" spans="1:3">
       <c r="A175" s="7" t="s">
         <v>391</v>
       </c>
@@ -5744,12 +5744,12 @@
         <v>401</v>
       </c>
     </row>
-    <row r="180" ht="15" spans="1:3">
+    <row r="180" spans="1:3">
       <c r="A180" t="s">
         <v>395</v>
       </c>
       <c r="B180" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C180" s="8" t="s">
         <v>402</v>
@@ -5766,7 +5766,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="182" ht="15" spans="1:3">
+    <row r="182" spans="1:3">
       <c r="A182" s="7" t="s">
         <v>406</v>
       </c>
@@ -5876,7 +5876,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="192" ht="15" spans="1:3">
+    <row r="192" spans="1:3">
       <c r="A192" s="7" t="s">
         <v>430</v>
       </c>
@@ -5887,7 +5887,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="193" ht="15" spans="1:3">
+    <row r="193" spans="1:3">
       <c r="A193" s="7" t="s">
         <v>433</v>
       </c>
@@ -5931,7 +5931,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="197" ht="15" spans="1:3">
+    <row r="197" spans="1:3">
       <c r="A197" s="7" t="s">
         <v>443</v>
       </c>
@@ -5942,7 +5942,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="198" ht="15" spans="1:3">
+    <row r="198" spans="1:3">
       <c r="A198" s="7" t="s">
         <v>446</v>
       </c>
@@ -5953,18 +5953,18 @@
         <v>447</v>
       </c>
     </row>
-    <row r="199" ht="15" spans="1:3">
+    <row r="199" spans="1:3">
       <c r="A199" s="7" t="s">
         <v>448</v>
       </c>
       <c r="B199" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C199" s="8" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="200" ht="15" spans="1:3">
+    <row r="200" spans="1:3">
       <c r="A200" s="7" t="s">
         <v>449</v>
       </c>
@@ -6008,7 +6008,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="204" ht="15" spans="1:3">
+    <row r="204" spans="1:3">
       <c r="A204" s="7" t="s">
         <v>459</v>
       </c>
@@ -6019,7 +6019,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="205" ht="15" spans="1:3">
+    <row r="205" spans="1:3">
       <c r="A205" s="7" t="s">
         <v>459</v>
       </c>
@@ -6030,29 +6030,29 @@
         <v>463</v>
       </c>
     </row>
-    <row r="206" ht="15" spans="1:3">
+    <row r="206" spans="1:3">
       <c r="A206" s="7" t="s">
         <v>459</v>
       </c>
       <c r="B206" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C206" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="207" ht="15" spans="1:3">
+    <row r="207" spans="1:3">
       <c r="A207" s="7" t="s">
         <v>459</v>
       </c>
       <c r="B207" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C207" s="8" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="208" ht="15" spans="1:3">
+    <row r="208" spans="1:3">
       <c r="A208" s="7" t="s">
         <v>466</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="211" ht="15" spans="1:3">
+    <row r="211" spans="1:3">
       <c r="A211" s="7" t="s">
         <v>474</v>
       </c>
@@ -6107,7 +6107,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="213" ht="15" spans="1:3">
+    <row r="213" spans="1:3">
       <c r="A213" s="7" t="s">
         <v>478</v>
       </c>
@@ -6134,13 +6134,13 @@
         <v>483</v>
       </c>
       <c r="B215" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C215" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="216" ht="15" spans="1:3">
+    <row r="216" spans="1:3">
       <c r="A216" t="s">
         <v>484</v>
       </c>
@@ -6151,7 +6151,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="217" ht="15" spans="1:3">
+    <row r="217" spans="1:3">
       <c r="A217" s="7" t="s">
         <v>486</v>
       </c>
@@ -6206,7 +6206,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="222" ht="15" spans="1:3">
+    <row r="222" spans="1:3">
       <c r="A222" s="7" t="s">
         <v>496</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="223" ht="15" spans="1:3">
+    <row r="223" spans="1:3">
       <c r="A223" t="s">
         <v>498</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>512</v>
       </c>
       <c r="B229" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C229" t="s">
         <v>513</v>
@@ -6349,7 +6349,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="235" ht="15" spans="1:3">
+    <row r="235" spans="1:3">
       <c r="A235" s="7" t="s">
         <v>524</v>
       </c>
@@ -6360,7 +6360,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="236" ht="15" spans="1:3">
+    <row r="236" spans="1:3">
       <c r="A236" s="7" t="s">
         <v>524</v>
       </c>
@@ -6470,7 +6470,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="246" ht="15" spans="1:3">
+    <row r="246" spans="1:3">
       <c r="A246" s="7" t="s">
         <v>546</v>
       </c>
@@ -6492,7 +6492,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="248" ht="15" spans="1:3">
+    <row r="248" spans="1:3">
       <c r="A248" s="7" t="s">
         <v>550</v>
       </c>
@@ -6503,7 +6503,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="249" ht="15" spans="1:3">
+    <row r="249" spans="1:3">
       <c r="A249" s="7" t="s">
         <v>552</v>
       </c>
@@ -6552,13 +6552,13 @@
         <v>562</v>
       </c>
       <c r="B253" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C253" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="254" ht="15" spans="1:3">
+    <row r="254" spans="1:3">
       <c r="A254" s="7" t="s">
         <v>564</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="263" ht="15.6" spans="1:3">
+    <row r="263" spans="1:3">
       <c r="A263" s="9" t="s">
         <v>586</v>
       </c>
@@ -6690,7 +6690,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="266" ht="15.6" spans="1:3">
+    <row r="266" spans="1:3">
       <c r="A266" s="9" t="s">
         <v>592</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="267" ht="15.6" spans="1:3">
+    <row r="267" spans="1:3">
       <c r="A267" s="9" t="s">
         <v>594</v>
       </c>
@@ -6712,7 +6712,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="268" ht="15.6" spans="1:3">
+    <row r="268" spans="1:3">
       <c r="A268" s="9" t="s">
         <v>596</v>
       </c>
@@ -6720,10 +6720,10 @@
         <v>596</v>
       </c>
       <c r="C268" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="269" ht="15.6" spans="1:3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
       <c r="A269" s="9" t="s">
         <v>597</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="271" ht="15.6" spans="1:3">
+    <row r="271" spans="1:3">
       <c r="A271" s="9" t="s">
         <v>602</v>
       </c>
@@ -6756,7 +6756,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="272" ht="15.6" spans="1:3">
+    <row r="272" spans="1:3">
       <c r="A272" s="9" t="s">
         <v>604</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="274" ht="15.6" spans="1:3">
+    <row r="274" spans="1:3">
       <c r="A274" s="9" t="s">
         <v>608</v>
       </c>
@@ -6811,7 +6811,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="277" ht="15.6" spans="1:3">
+    <row r="277" spans="1:3">
       <c r="A277" s="9" t="s">
         <v>616</v>
       </c>
@@ -6822,7 +6822,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="278" ht="15.6" spans="1:3">
+    <row r="278" spans="1:3">
       <c r="A278" s="9" t="s">
         <v>618</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="279" ht="15.6" spans="1:3">
+    <row r="279" spans="1:3">
       <c r="A279" s="9" t="s">
         <v>620</v>
       </c>
@@ -6844,7 +6844,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="280" ht="15.6" spans="1:3">
+    <row r="280" spans="1:3">
       <c r="A280" s="9" t="s">
         <v>622</v>
       </c>
@@ -6855,7 +6855,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="281" ht="15.6" spans="1:3">
+    <row r="281" spans="1:3">
       <c r="A281" s="9" t="s">
         <v>622</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>627</v>
       </c>
       <c r="B282" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C282" t="s">
         <v>628</v>
@@ -6888,7 +6888,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="284" ht="15.6" spans="1:3">
+    <row r="284" spans="1:3">
       <c r="A284" s="9" t="s">
         <v>632</v>
       </c>
@@ -7042,7 +7042,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="298" ht="15.6" spans="1:3">
+    <row r="298" spans="1:3">
       <c r="A298" s="9" t="s">
         <v>662</v>
       </c>
@@ -7064,7 +7064,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="300" ht="15.6" spans="1:3">
+    <row r="300" spans="1:3">
       <c r="A300" s="9" t="s">
         <v>668</v>
       </c>
@@ -7102,7 +7102,7 @@
         <v>672</v>
       </c>
       <c r="B303" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C303" t="s">
         <v>675</v>
@@ -7174,7 +7174,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="310" ht="15.6" spans="1:3">
+    <row r="310" spans="1:3">
       <c r="A310" s="9" t="s">
         <v>689</v>
       </c>
@@ -7185,7 +7185,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="311" ht="15.6" spans="1:3">
+    <row r="311" spans="1:3">
       <c r="A311" s="9" t="s">
         <v>691</v>
       </c>
@@ -7196,7 +7196,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="312" ht="15.6" spans="1:3">
+    <row r="312" spans="1:3">
       <c r="A312" s="9" t="s">
         <v>693</v>
       </c>
@@ -7207,7 +7207,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="313" ht="15.6" spans="1:3">
+    <row r="313" spans="1:3">
       <c r="A313" s="9" t="s">
         <v>695</v>
       </c>
@@ -7278,7 +7278,7 @@
         <v>706</v>
       </c>
       <c r="B319" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C319" t="s">
         <v>708</v>
@@ -7317,7 +7317,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="323" ht="15.6" spans="1:3">
+    <row r="323" spans="1:3">
       <c r="A323" s="9" t="s">
         <v>714</v>
       </c>
@@ -7383,7 +7383,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="329" ht="15.6" spans="1:3">
+    <row r="329" spans="1:3">
       <c r="A329" s="9" t="s">
         <v>728</v>
       </c>
@@ -7394,7 +7394,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="330" ht="15.6" spans="1:3">
+    <row r="330" spans="1:3">
       <c r="A330" s="9" t="s">
         <v>730</v>
       </c>
@@ -7405,7 +7405,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="331" ht="15.6" spans="1:3">
+    <row r="331" spans="1:3">
       <c r="A331" s="9" t="s">
         <v>732</v>
       </c>
@@ -7416,7 +7416,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="332" ht="15.6" spans="1:3">
+    <row r="332" spans="1:3">
       <c r="A332" s="9" t="s">
         <v>734</v>
       </c>
@@ -7460,7 +7460,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="336" ht="15.6" spans="1:3">
+    <row r="336" spans="1:3">
       <c r="A336" s="9" t="s">
         <v>743</v>
       </c>
@@ -7526,7 +7526,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="342" ht="15.6" spans="1:3">
+    <row r="342" spans="1:3">
       <c r="A342" s="9" t="s">
         <v>756</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="343" ht="15.6" spans="1:3">
+    <row r="343" spans="1:3">
       <c r="A343" s="9" t="s">
         <v>758</v>
       </c>
@@ -7548,7 +7548,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="344" ht="15.6" spans="1:3">
+    <row r="344" spans="1:3">
       <c r="A344" s="9" t="s">
         <v>760</v>
       </c>
@@ -7559,7 +7559,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="345" ht="15.6" spans="1:3">
+    <row r="345" spans="1:3">
       <c r="A345" s="9" t="s">
         <v>763</v>
       </c>
@@ -7570,7 +7570,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="346" ht="15.6" spans="1:3">
+    <row r="346" spans="1:3">
       <c r="A346" s="9" t="s">
         <v>765</v>
       </c>
@@ -7592,7 +7592,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="348" ht="15.6" spans="1:3">
+    <row r="348" spans="1:3">
       <c r="A348" s="9" t="s">
         <v>770</v>
       </c>
@@ -7669,7 +7669,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="355" ht="15.6" spans="1:3">
+    <row r="355" spans="1:3">
       <c r="A355" t="s">
         <v>783</v>
       </c>
@@ -7680,7 +7680,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="356" ht="15.6" spans="1:3">
+    <row r="356" spans="1:3">
       <c r="A356" s="9" t="s">
         <v>785</v>
       </c>
@@ -7751,7 +7751,7 @@
         <v>798</v>
       </c>
       <c r="B362" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C362" t="s">
         <v>799</v>
@@ -7790,7 +7790,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="366" ht="15.6" spans="1:3">
+    <row r="366" spans="1:3">
       <c r="A366" s="9" t="s">
         <v>806</v>
       </c>
@@ -7801,7 +7801,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="367" ht="15.6" spans="1:3">
+    <row r="367" spans="1:3">
       <c r="A367" s="9" t="s">
         <v>808</v>
       </c>
@@ -7979,10 +7979,10 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B383" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C383" t="s">
         <v>842</v>
@@ -8153,7 +8153,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="399" ht="15.6" spans="1:3">
+    <row r="399" spans="1:3">
       <c r="A399" s="9" t="s">
         <v>878</v>
       </c>
@@ -8175,7 +8175,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="401" ht="15.6" spans="1:3">
+    <row r="401" spans="1:3">
       <c r="A401" t="s">
         <v>882</v>
       </c>
@@ -8208,7 +8208,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="404" ht="15.6" spans="1:3">
+    <row r="404" spans="1:3">
       <c r="A404" s="9" t="s">
         <v>891</v>
       </c>
@@ -8219,7 +8219,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="405" ht="15.6" spans="1:3">
+    <row r="405" spans="1:3">
       <c r="A405" s="9" t="s">
         <v>894</v>
       </c>
@@ -8285,7 +8285,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="411" ht="15.6" spans="1:3">
+    <row r="411" spans="1:3">
       <c r="A411" s="9" t="s">
         <v>909</v>
       </c>
